--- a/1. Prijedlog projekta/Pocetni Plan-GameStars.xlsx
+++ b/1. Prijedlog projekta/Pocetni Plan-GameStars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\Andrija programer\PIS\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Ime Zadatka</t>
   </si>
@@ -106,82 +106,43 @@
     <t>16/4/2024</t>
   </si>
   <si>
-    <t>21/4/2024</t>
-  </si>
-  <si>
     <t>Andrija Soldo</t>
   </si>
   <si>
-    <t>22/4/2024</t>
-  </si>
-  <si>
-    <t>24/4/2024</t>
-  </si>
-  <si>
-    <t>25/4/2024</t>
-  </si>
-  <si>
-    <t>27/4/2024</t>
-  </si>
-  <si>
-    <t>28/4/2024</t>
-  </si>
-  <si>
-    <t>17/5/2024</t>
-  </si>
-  <si>
-    <t>18/5/2024</t>
-  </si>
-  <si>
-    <t>16/6/2024</t>
-  </si>
-  <si>
-    <t>17/6/2024</t>
-  </si>
-  <si>
-    <t>20/6/2024</t>
-  </si>
-  <si>
-    <t>21/6/2024</t>
-  </si>
-  <si>
-    <t>26/6/2024</t>
-  </si>
-  <si>
-    <t>27/6/2024</t>
-  </si>
-  <si>
-    <t>29/6/2024</t>
-  </si>
-  <si>
-    <t>30/6/2024</t>
-  </si>
-  <si>
-    <t>25/7/2024</t>
-  </si>
-  <si>
     <t>Konceptualni model podataka</t>
   </si>
   <si>
     <t>Logički model podataka</t>
   </si>
   <si>
-    <t>14/7/2024</t>
-  </si>
-  <si>
-    <t>15/7/2024</t>
-  </si>
-  <si>
-    <t>20/7/2024</t>
-  </si>
-  <si>
-    <t>21/7/2024</t>
-  </si>
-  <si>
-    <t>29/7/2024</t>
-  </si>
-  <si>
     <t>GameStars</t>
+  </si>
+  <si>
+    <t>6 dana</t>
+  </si>
+  <si>
+    <t>3 dana</t>
+  </si>
+  <si>
+    <t>10 dana</t>
+  </si>
+  <si>
+    <t>7 dana</t>
+  </si>
+  <si>
+    <t>21 dana</t>
+  </si>
+  <si>
+    <t>4 dana</t>
+  </si>
+  <si>
+    <t>5 dana</t>
+  </si>
+  <si>
+    <t>26 dana</t>
+  </si>
+  <si>
+    <t>8 dana</t>
   </si>
 </sst>
 </file>
@@ -495,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,6 +528,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,15 +857,15 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
@@ -917,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -933,73 +906,73 @@
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="25">
+        <v>45398.333333333336</v>
+      </c>
+      <c r="D2" s="25">
+        <v>45405.708333333336</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="24"/>
       <c r="G2" s="23">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
+      <c r="I2" s="3">
+        <v>45603</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="26">
+        <v>45398.333333333336</v>
+      </c>
+      <c r="D3" s="26">
+        <v>45400.708333333336</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="C4" s="26">
+        <v>45401.333333333336</v>
+      </c>
+      <c r="D4" s="26">
+        <v>45405.708333333336</v>
+      </c>
       <c r="E4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="C5" s="27">
+        <v>45406.333333333336</v>
+      </c>
       <c r="D5" s="11">
-        <v>45478</v>
+        <v>45419.708333333336</v>
       </c>
       <c r="E5" s="19"/>
     </row>
@@ -1007,48 +980,48 @@
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
-        <v>3</v>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="12">
-        <v>45509</v>
+        <v>45406.333333333336</v>
       </c>
       <c r="D6" s="12">
-        <v>45570</v>
+        <v>45408.708333333336</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
-        <v>7</v>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="12">
-        <v>45601</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>45411.333333333336</v>
+      </c>
+      <c r="D7" s="26">
+        <v>45419.708333333336</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="27">
+        <v>45420.333333333336</v>
+      </c>
       <c r="D8" s="11">
-        <v>45479</v>
+        <v>45448.708333333336</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1056,99 +1029,99 @@
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <v>3</v>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="12">
-        <v>45510</v>
+        <v>45420.333333333336</v>
       </c>
       <c r="D9" s="12">
-        <v>45571</v>
+        <v>45422.708333333336</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
-        <v>6</v>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="12">
-        <v>45602</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>45425.333333333336</v>
+      </c>
+      <c r="D10" s="26">
+        <v>45432.708333333336</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="26">
+        <v>45433.333333333336</v>
+      </c>
+      <c r="D11" s="26">
+        <v>45436.708333333336</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="26">
+        <v>45439.333333333336</v>
+      </c>
+      <c r="D12" s="26">
+        <v>45443.708333333336</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="26">
+        <v>45446.333333333336</v>
+      </c>
+      <c r="D13" s="26">
+        <v>45448.708333333336</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="27">
+        <v>45449.333333333336</v>
+      </c>
+      <c r="D14" s="27">
+        <v>45484.708333333336</v>
       </c>
       <c r="E14" s="17"/>
     </row>
@@ -1156,85 +1129,85 @@
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="26">
+        <v>45449.333333333336</v>
       </c>
       <c r="D15" s="12">
-        <v>45389</v>
+        <v>45454.708333333336</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="12">
-        <v>45419</v>
+        <v>45455.333333333336</v>
       </c>
       <c r="D16" s="12">
-        <v>45572</v>
+        <v>45461.708333333336</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="12">
-        <v>45603</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
+        <v>45462.333333333336</v>
+      </c>
+      <c r="D17" s="26">
+        <v>45467.708333333336</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>45</v>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26">
+        <v>45468.333333333336</v>
+      </c>
+      <c r="D18" s="26">
+        <v>45474.708333333336</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21">
-        <v>8</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>47</v>
+      <c r="B19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="28">
+        <v>45475.333333333336</v>
+      </c>
+      <c r="D19" s="28">
+        <v>45484.708333333336</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">

--- a/1. Prijedlog projekta/Pocetni Plan-GameStars.xlsx
+++ b/1. Prijedlog projekta/Pocetni Plan-GameStars.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
